--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -611,10 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头盔4 胸甲2 肩甲5 披风5 戒指5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>480 + 60[世界] + 160[南瓜] + 90[工会] + 110[材料] = 900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,6 +628,10 @@
   </si>
   <si>
     <t>480 + 60[世界] + 160[南瓜] + 90[工会] + 50[材料] = 840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔4 胸甲1 肩甲5 披风5 戒指5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C20" sqref="C20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B14" s="21"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -1447,7 +1447,7 @@
         <v>82</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -1462,7 +1462,7 @@
         <v>141</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C18" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -1490,7 +1490,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -11,13 +11,14 @@
     <sheet name="祖安" sheetId="2" r:id="rId2"/>
     <sheet name="火下" sheetId="3" r:id="rId3"/>
     <sheet name="PVE" sheetId="4" r:id="rId4"/>
+    <sheet name="套装" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,6 +633,73 @@
   </si>
   <si>
     <t>头盔4 胸甲1 肩甲5 披风5 戒指5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25白美屡</t>
+  </si>
+  <si>
+    <t>25白美屡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不自杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25白美屡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT银牙：狼人守卫者 掉落：手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT银牙：食尸鬼 掉落：头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT血色：看门狗 掉落：手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT血色：旋风男 掉落：脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不自杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30蓝方砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30蓝方砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,6 +914,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2214,4 +2286,217 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="34"/>
+      <c r="G3" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7"/>
+      <c r="G4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="18"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="G6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="G7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="G8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E12" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="34"/>
+      <c r="G13" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="G14" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="18"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="G16" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="G17" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="G18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="19"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G13:I13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -632,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头盔4 胸甲1 肩甲5 披风5 戒指5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25白美屡</t>
   </si>
   <si>
@@ -700,6 +696,10 @@
   </si>
   <si>
     <t>30蓝方砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔3 胸甲1 肩甲5 披风5 戒指5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:I20"/>
+      <selection activeCell="C21" sqref="C21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B14" s="21"/>
     </row>
@@ -2300,30 +2300,30 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E2" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="34"/>
       <c r="G3" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
       <c r="G4" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="7"/>
@@ -2332,55 +2332,55 @@
       <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="7"/>
       <c r="G7" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -2388,40 +2388,40 @@
       <c r="B9" s="19"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E12" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="41"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="34"/>
       <c r="G13" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="G14" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="7"/>
@@ -2430,46 +2430,46 @@
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
       <c r="D15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
       <c r="G16" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
       <c r="G17" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
       <c r="G18" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="6"/>
@@ -2478,12 +2478,12 @@
       <c r="B19" s="19"/>
       <c r="C19" s="8"/>
       <c r="D19" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="8"/>
       <c r="I19" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -12,13 +12,14 @@
     <sheet name="火下" sheetId="3" r:id="rId3"/>
     <sheet name="PVE" sheetId="4" r:id="rId4"/>
     <sheet name="套装" sheetId="5" r:id="rId5"/>
+    <sheet name="主角刷法" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="190">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,7 +700,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头盔3 胸甲1 肩甲5 披风5 戒指5</t>
+    <t>女德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擂昔格尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿金边擂昔格尔(PT银牙出)，戴30蓝法杖，30成就戒指
+30绿方砖，穿加血防具，推荐魔法披风+绿衬肩，将血量堆到3300~3600，戴30蓝戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两傻馒，总攻击越接近2300越好，不要超
+推荐25白傻馒和29绿傻馒，可能需要带上绿武器
+两个德，等级稍微高点，不要被小怪打死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆贼(精英)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔1 胸甲1 肩甲5 披风5 戒指5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30蓝小德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30蓝贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶牛、女贼(精英)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +787,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +813,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -839,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,6 +967,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -916,6 +1008,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1222,7 +1326,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:I21"/>
+      <selection activeCell="C20" sqref="C20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1494,108 +1598,108 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="21"/>
+      <c r="A14" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="25"/>
       <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1627,14 +1731,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>90</v>
@@ -1643,7 +1747,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="30"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
@@ -1665,7 +1769,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
@@ -1683,19 +1787,19 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="31"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="31"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>86</v>
@@ -1709,7 +1813,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="2" t="s">
         <v>93</v>
       </c>
@@ -1725,19 +1829,19 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="31"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="2" t="s">
         <v>87</v>
       </c>
@@ -1759,7 +1863,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -1802,21 +1906,21 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="34"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1826,7 +1930,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1838,7 +1942,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
@@ -1858,7 +1962,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8" t="s">
         <v>99</v>
       </c>
@@ -1897,20 +2001,20 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
         <v>113</v>
@@ -1919,7 +2023,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="30"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>104</v>
@@ -1937,7 +2041,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>105</v>
       </c>
@@ -1959,46 +2063,46 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="30"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="30"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="30"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="3"/>
       <c r="G8" s="12" t="s">
         <v>114</v>
@@ -2007,7 +2111,7 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="2" t="s">
         <v>106</v>
       </c>
@@ -2029,7 +2133,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="33"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="8" t="s">
         <v>105</v>
       </c>
@@ -2047,14 +2151,14 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4"/>
       <c r="G12" s="11" t="s">
         <v>127</v>
@@ -2063,7 +2167,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2079,7 +2183,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2093,12 +2197,12 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="3"/>
       <c r="G15" s="12" t="s">
         <v>129</v>
@@ -2107,7 +2211,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
@@ -2129,7 +2233,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="2" t="s">
         <v>131</v>
       </c>
@@ -2147,12 +2251,12 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="30"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="3"/>
       <c r="G18" s="12" t="s">
         <v>129</v>
@@ -2161,7 +2265,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="2" t="s">
         <v>122</v>
       </c>
@@ -2183,7 +2287,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="33"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8" t="s">
         <v>131</v>
       </c>
@@ -2232,20 +2336,20 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="15"/>
@@ -2293,28 +2397,28 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="34"/>
-      <c r="G3" s="40" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="37"/>
+      <c r="G3" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
@@ -2397,22 +2501,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="34"/>
-      <c r="G13" s="40" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="37"/>
+      <c r="G13" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="34"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
@@ -2499,4 +2603,216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B2" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="H2" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="M2" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="42"/>
+      <c r="H3" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="42"/>
+      <c r="M3" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="34"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="42"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="42"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="42"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="42"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="42"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="42"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="15"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="H8" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K6"/>
+    <mergeCell ref="M2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -759,10 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头盔1 胸甲1 肩甲5 披风5 戒指5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,6 +776,10 @@
   </si>
   <si>
     <t>桶牛、女贼(精英)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲5 披风5 戒指5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:I20"/>
+      <selection activeCell="C19" sqref="C19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B14" s="24"/>
     </row>
@@ -2629,7 +2629,7 @@
       <c r="J2" s="47"/>
       <c r="K2" s="48"/>
       <c r="M2" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
@@ -2649,7 +2649,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="42"/>
       <c r="M3" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
@@ -2666,13 +2666,13 @@
       <c r="K4" s="42"/>
       <c r="M4" s="22"/>
       <c r="N4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
@@ -2687,7 +2687,7 @@
       <c r="M5" s="16"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P5" s="10"/>
     </row>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -10,16 +10,17 @@
     <sheet name="资料" sheetId="1" r:id="rId1"/>
     <sheet name="祖安" sheetId="2" r:id="rId2"/>
     <sheet name="火下" sheetId="3" r:id="rId3"/>
-    <sheet name="PVE" sheetId="4" r:id="rId4"/>
-    <sheet name="套装" sheetId="5" r:id="rId5"/>
-    <sheet name="主角刷法" sheetId="6" r:id="rId6"/>
+    <sheet name="火上" sheetId="7" r:id="rId4"/>
+    <sheet name="PVE" sheetId="4" r:id="rId5"/>
+    <sheet name="套装" sheetId="5" r:id="rId6"/>
+    <sheet name="主角刷法" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="196">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熬忒曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>训犬人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,26 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>480 + 60[世界] + 160[南瓜] + 90[工会] + 110[材料] = 900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[世界] + 120[金龙] + 90[工会] + 100[材料] = 850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[世界] + 160[南瓜] + 90[工会] + 130[材料] = 920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[世界] + 120[金龙] + 90[工会] + 40[材料] = 790</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[世界] + 160[南瓜] + 90[工会] + 50[材料] = 840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25白美屡</t>
   </si>
   <si>
@@ -717,10 +694,6 @@
   </si>
   <si>
     <t>德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -779,7 +752,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肩甲5 披风5 戒指5</t>
+    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 110[材料] = 870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 120[金龙] + 60[工会] + 100[材料] = 820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 130[材料] = 890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 50[材料] = 810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 120[金龙] + 60[工会] + 40[材料] = 760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] = 970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] = 970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥忒曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲1 披风4 戒指5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老二带四小怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,6 +995,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,6 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1326,7 +1356,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:I19"/>
+      <selection activeCell="C21" sqref="C21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,19 +1423,19 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1473,22 +1503,22 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
         <v>60</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1496,39 +1526,39 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -1598,108 +1628,112 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="24"/>
+      <c r="A14" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C18" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="25" t="s">
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="26"/>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="26"/>
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="C21" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1731,81 +1765,81 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="35"/>
+      <c r="C4" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="33"/>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="34"/>
-      <c r="C5" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1813,15 +1847,15 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1829,58 +1863,58 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="34"/>
-      <c r="C8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="37"/>
+      <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="10"/>
       <c r="L10" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
@@ -1888,39 +1922,39 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L11" s="18"/>
       <c r="M11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L12" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="N12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="33"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1930,54 +1964,54 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="33"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="38"/>
+      <c r="C17" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="36"/>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -2007,301 +2041,301 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="35"/>
+      <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="33"/>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="33"/>
-      <c r="C5" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="33"/>
-      <c r="C6" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="33"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="33"/>
-      <c r="C8" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="3"/>
       <c r="G8" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="34" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="4"/>
       <c r="G12" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="33"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="33"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="33"/>
-      <c r="C15" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="3"/>
       <c r="G15" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="33"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="33"/>
-      <c r="C18" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="3"/>
       <c r="G18" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="33"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="36"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -2327,6 +2361,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2336,20 +2418,20 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="15"/>
@@ -2360,25 +2442,25 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="16"/>
       <c r="C6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2392,7 +2474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I19"/>
   <sheetViews>
@@ -2403,31 +2485,31 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E2" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="44"/>
+      <c r="E2" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="37"/>
-      <c r="G3" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="39"/>
+      <c r="G3" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
       <c r="G4" s="15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="7"/>
@@ -2436,55 +2518,55 @@
       <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="7"/>
       <c r="G7" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -2492,40 +2574,40 @@
       <c r="B9" s="19"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E12" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="44"/>
+      <c r="E12" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="37"/>
-      <c r="G13" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="37"/>
+      <c r="B13" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="39"/>
+      <c r="G13" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="G14" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="7"/>
@@ -2534,46 +2616,46 @@
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
       <c r="D15" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
       <c r="G16" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
       <c r="G17" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
       <c r="G18" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="6"/>
@@ -2582,12 +2664,12 @@
       <c r="B19" s="19"/>
       <c r="C19" s="8"/>
       <c r="D19" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="8"/>
       <c r="I19" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2605,101 +2687,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="H2" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="M2" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="H2" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="M2" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="44"/>
+      <c r="H3" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="44"/>
+      <c r="M3" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="42"/>
-      <c r="H3" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="42"/>
-      <c r="M3" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="34"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="42"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="42"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="44"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="44"/>
       <c r="M4" s="22"/>
       <c r="N4" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="34"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="42"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="42"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="44"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="44"/>
       <c r="M5" s="16"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="42"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="42"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="44"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
@@ -2713,13 +2795,13 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="7"/>
       <c r="H8" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2728,44 +2810,46 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B9" s="15"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B11" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2778,13 +2862,13 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="3"/>
@@ -2794,10 +2878,12 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B13" s="16"/>
       <c r="C13" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -10,17 +10,16 @@
     <sheet name="资料" sheetId="1" r:id="rId1"/>
     <sheet name="祖安" sheetId="2" r:id="rId2"/>
     <sheet name="火下" sheetId="3" r:id="rId3"/>
-    <sheet name="火上" sheetId="7" r:id="rId4"/>
-    <sheet name="PVE" sheetId="4" r:id="rId5"/>
-    <sheet name="套装" sheetId="5" r:id="rId6"/>
-    <sheet name="主角刷法" sheetId="6" r:id="rId7"/>
+    <sheet name="PVE" sheetId="4" r:id="rId4"/>
+    <sheet name="套装" sheetId="5" r:id="rId5"/>
+    <sheet name="主角刷法" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="191">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,10 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>呆贼(精英)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,10 +739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桶牛、女贼(精英)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,27 +775,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肩甲1 披风4 戒指5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老二带四小怪</t>
+    <t>群奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披风4 戒指5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,10 +974,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1051,7 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1356,7 +1330,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:I21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1543,7 +1517,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1628,112 +1602,112 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="C15" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="25"/>
       <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="C16" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="25"/>
       <c r="B17" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C18" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="C19" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="C20" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
+      <c r="A21" s="24"/>
       <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="C21" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1765,14 +1739,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>89</v>
@@ -1781,7 +1755,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="35"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
@@ -1803,7 +1777,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="35"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
@@ -1821,19 +1795,19 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="36"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>85</v>
@@ -1847,7 +1821,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="36"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
@@ -1863,19 +1837,19 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="36"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="2" t="s">
         <v>86</v>
       </c>
@@ -1897,7 +1871,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="37"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
@@ -1940,21 +1914,21 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="35"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1964,7 +1938,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1976,7 +1950,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2" t="s">
         <v>96</v>
       </c>
@@ -1996,7 +1970,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8" t="s">
         <v>98</v>
       </c>
@@ -2041,14 +2015,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
         <v>112</v>
@@ -2057,7 +2031,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="35"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>103</v>
@@ -2075,7 +2049,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="35"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
@@ -2097,46 +2071,46 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="35"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="3"/>
       <c r="G8" s="12" t="s">
         <v>113</v>
@@ -2145,7 +2119,7 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="2" t="s">
         <v>105</v>
       </c>
@@ -2167,7 +2141,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="8" t="s">
         <v>104</v>
       </c>
@@ -2185,14 +2159,14 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4"/>
       <c r="G12" s="11" t="s">
         <v>126</v>
@@ -2201,7 +2175,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="35"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2217,7 +2191,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="35"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2231,12 +2205,12 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="3"/>
       <c r="G15" s="12" t="s">
         <v>128</v>
@@ -2245,7 +2219,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2" t="s">
         <v>121</v>
       </c>
@@ -2267,7 +2241,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="35"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="2" t="s">
         <v>130</v>
       </c>
@@ -2285,12 +2259,12 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="35"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="3"/>
       <c r="G18" s="12" t="s">
         <v>128</v>
@@ -2299,7 +2273,7 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="35"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="2" t="s">
         <v>121</v>
       </c>
@@ -2321,7 +2295,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8" t="s">
         <v>130</v>
       </c>
@@ -2361,54 +2335,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2418,20 +2344,20 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="44"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="15"/>
@@ -2474,7 +2400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I19"/>
   <sheetViews>
@@ -2485,22 +2411,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="39"/>
-      <c r="G3" s="45" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="37"/>
+      <c r="G3" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="39"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
@@ -2583,22 +2509,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="39"/>
-      <c r="G13" s="45" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="37"/>
+      <c r="G13" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="39"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
@@ -2687,101 +2613,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="H2" s="48" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="H2" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="M2" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="42"/>
+      <c r="H3" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="42"/>
+      <c r="M3" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="M2" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="44"/>
-      <c r="H3" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="44"/>
-      <c r="M3" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="36"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="44"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="44"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="42"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="42"/>
       <c r="M4" s="22"/>
       <c r="N4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="36"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="44"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="44"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="42"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="42"/>
       <c r="M5" s="16"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="36"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="44"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="44"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="42"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
@@ -2814,7 +2740,7 @@
         <v>168</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="2" t="s">
@@ -2841,7 +2767,7 @@
         <v>174</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>174</v>
@@ -2868,7 +2794,7 @@
         <v>167</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="3"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="190">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,34 +743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 110[材料] = 870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 120[金龙] + 60[工会] + 100[材料] = 820</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 130[材料] = 890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 50[材料] = 810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 120[金龙] + 60[工会] + 40[材料] = 760</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] = 970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] = 970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奥忒曼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -783,7 +755,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>披风4 戒指5</t>
+    <t>480 + 60[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] + 30[世界] = 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 50[材料] + 30[世界] = 840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 120[金龙] + 60[工会] + 40[材料] + 30[世界] = 790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 130[材料] + 30[世界] = 920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 120[金龙] + 60[工会] + 100[材料] + 30[世界] = 850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 110[材料] + 30[世界] = 900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披风2 戒指5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1517,7 +1513,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1603,7 +1599,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="24"/>
     </row>
@@ -1612,7 +1608,7 @@
         <v>76</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -1627,7 +1623,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -1642,7 +1638,7 @@
         <v>140</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -1653,7 +1649,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C18" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -1670,7 +1666,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -1685,7 +1681,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -1700,7 +1696,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2695,7 +2691,7 @@
       <c r="M5" s="16"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P5" s="10"/>
     </row>
@@ -2740,7 +2736,7 @@
         <v>168</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="2" t="s">
@@ -2767,7 +2763,7 @@
         <v>174</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>174</v>
@@ -2794,7 +2790,7 @@
         <v>167</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="3"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -8,18 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="资料" sheetId="1" r:id="rId1"/>
-    <sheet name="祖安" sheetId="2" r:id="rId2"/>
-    <sheet name="火下" sheetId="3" r:id="rId3"/>
-    <sheet name="PVE" sheetId="4" r:id="rId4"/>
-    <sheet name="套装" sheetId="5" r:id="rId5"/>
-    <sheet name="主角刷法" sheetId="6" r:id="rId6"/>
+    <sheet name="PVE" sheetId="4" r:id="rId2"/>
+    <sheet name="套装" sheetId="5" r:id="rId3"/>
+    <sheet name="主角刷法" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,15 +347,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祖中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血领主：竖排物理 落单93%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼</t>
+    <t>英雄：恐惧领主 掉落：60级防具+戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长技能：法抗 基友：法抗大大姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,247 +359,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大大姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>沐丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人阵容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡塞恩：全体法术 落单61%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娅尔罗：后排物理 落单30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶利克、哈卡尔、镀金：全体法术 落单分别为95%，65%，30%，打法一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人阵容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁西弗：前排法术 落单92%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玛格达：单体重击 落单60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉纳斯：群体法术 落单31%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人阵容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人阵容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加尔罗：群体物攻 落单94%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人阵容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙思拉：群体法术 落单62%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人阵容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉顿：后排法术 落单30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄：恐惧领主 掉落：60级防具+戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队长技能：法抗 基友：法抗大大姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大大姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傻馒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上：胸甲[物防]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用阵型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女贼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -779,7 +553,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>披风2 戒指5</t>
+    <t>审判：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背刺：10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25白傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29绿傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29绿傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25白傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均不穿装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +627,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -928,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,8 +746,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,17 +757,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,34 +773,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1020,6 +794,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1326,7 +1106,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1513,7 +1293,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1598,112 +1378,116 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="24"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="C15" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+      <c r="A16" s="18"/>
       <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="C16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
       <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
+      <c r="C19" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
       <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
+      <c r="C20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
       <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="C21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1726,611 +1510,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="33"/>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="33"/>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="34"/>
-      <c r="C5" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="34"/>
-      <c r="C7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="34"/>
-      <c r="C8" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="34"/>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="L10" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="L11" s="18"/>
-      <c r="M11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="L12" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="33"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="33"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="33"/>
-      <c r="C16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="36"/>
-      <c r="C17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:I13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="33"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="33"/>
-      <c r="C4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="33"/>
-      <c r="C5" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="33"/>
-      <c r="C6" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="33"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="33"/>
-      <c r="C8" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="33"/>
-      <c r="C9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="36"/>
-      <c r="C10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="33"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="33"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="33"/>
-      <c r="C15" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="33"/>
-      <c r="C16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="33"/>
-      <c r="C17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="33"/>
-      <c r="C18" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="33"/>
-      <c r="C19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="36"/>
-      <c r="C20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C6:I7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2340,49 +1519,49 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="15"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="15"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>135</v>
+        <v>85</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="16"/>
-      <c r="C6" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>138</v>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2396,206 +1575,219 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E2" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="44"/>
+      <c r="E2" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="37"/>
-      <c r="G3" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="G3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="15" t="s">
-        <v>150</v>
+      <c r="B4" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="7"/>
-      <c r="G4" s="15" t="s">
-        <v>150</v>
+      <c r="D4" s="5"/>
+      <c r="G4" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="18"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="18"/>
+      <c r="D5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="6" t="s">
-        <v>149</v>
+      <c r="I5" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="18" t="s">
-        <v>152</v>
+      <c r="B6" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="G6" s="18" t="s">
-        <v>152</v>
+        <v>92</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="G6" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="15" t="s">
-        <v>151</v>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="G7" s="15" t="s">
-        <v>151</v>
+      <c r="D7" s="5"/>
+      <c r="G7" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="18" t="s">
-        <v>147</v>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="G8" s="18" t="s">
-        <v>147</v>
+        <v>91</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="G8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="10" t="s">
-        <v>149</v>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E12" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="44"/>
+      <c r="E12" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="37"/>
-      <c r="G13" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="37"/>
+      <c r="B13" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="22"/>
+      <c r="G13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
-        <v>159</v>
+      <c r="B14" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="G14" s="15" t="s">
-        <v>159</v>
+      <c r="D14" s="5"/>
+      <c r="G14" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="D15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="11"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="6" t="s">
-        <v>160</v>
+      <c r="I15" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="G16" s="18" t="s">
-        <v>161</v>
+      <c r="B16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="G16" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="15" t="s">
-        <v>162</v>
+      <c r="B17" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="G17" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="G17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-      <c r="G18" s="18" t="s">
-        <v>163</v>
+      <c r="B18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="G18" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="10" t="s">
-        <v>160</v>
-      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E21" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B13:D13"/>
@@ -2605,11 +1797,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P13"/>
   <sheetViews>
@@ -2620,196 +1812,196 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="H2" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="M2" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
+      <c r="B2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="H2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="M2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="42"/>
-      <c r="H3" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="42"/>
-      <c r="M3" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="7"/>
+      <c r="B3" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="25"/>
+      <c r="H3" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="25"/>
+      <c r="M3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="34"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="42"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="42"/>
-      <c r="M4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="25"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="25"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="2" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>177</v>
+        <v>122</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="34"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="42"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="42"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="P5" s="10"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="25"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="42"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="42"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="25"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="15"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="15"/>
+      <c r="E7" s="5"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="15" t="s">
-        <v>165</v>
+      <c r="B8" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="H8" s="15" t="s">
-        <v>172</v>
+      <c r="E8" s="5"/>
+      <c r="H8" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="15"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="2" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="6" t="s">
-        <v>173</v>
+      <c r="K9" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="15"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="2" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>174</v>
+        <v>126</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="15" t="s">
-        <v>169</v>
+      <c r="B11" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="4"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="15"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="16"/>
-      <c r="C13" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="20"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="资料" sheetId="1" r:id="rId1"/>
-    <sheet name="PVE" sheetId="4" r:id="rId2"/>
-    <sheet name="套装" sheetId="5" r:id="rId3"/>
-    <sheet name="主角刷法" sheetId="6" r:id="rId4"/>
+    <sheet name="套装" sheetId="5" r:id="rId2"/>
+    <sheet name="主角刷法" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,38 +343,6 @@
   </si>
   <si>
     <t>中：头盔[法防]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄：恐惧领主 掉落：60级防具+戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队长技能：法抗 基友：法抗大大姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大大姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傻馒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -553,14 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审判：5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背刺：10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25白傻馒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,6 +541,10 @@
   </si>
   <si>
     <t>均不穿装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判：6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,14 +570,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -737,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,33 +728,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1106,7 +1059,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1293,7 +1246,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1386,7 +1339,7 @@
         <v>76</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1401,7 +1354,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1410,16 +1363,16 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="K16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1427,13 +1380,10 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="K17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C18" s="16" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1442,7 +1392,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>77</v>
       </c>
@@ -1450,7 +1400,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1459,13 +1409,13 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1474,13 +1424,13 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1510,73 +1460,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1586,31 +1469,31 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E2" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="27"/>
+      <c r="E2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
-      <c r="G3" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="G3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="G4" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
@@ -1619,55 +1502,55 @@
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D6" s="4"/>
       <c r="G6" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="G7" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4"/>
       <c r="G8" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -1675,40 +1558,40 @@
       <c r="B9" s="12"/>
       <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="6"/>
       <c r="I9" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E12" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="22"/>
-      <c r="G13" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="G13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="G14" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="5"/>
@@ -1717,52 +1600,52 @@
       <c r="B15" s="11"/>
       <c r="C15" s="2"/>
       <c r="D15" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D16" s="4"/>
       <c r="G16" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="G17" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D18" s="4"/>
       <c r="G18" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="4"/>
@@ -1771,19 +1654,19 @@
       <c r="B19" s="12"/>
       <c r="C19" s="6"/>
       <c r="D19" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="6"/>
       <c r="I19" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E21" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="33"/>
+      <c r="E21" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1801,7 +1684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P13"/>
   <sheetViews>
@@ -1813,89 +1696,89 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
       <c r="H2" s="29" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
       <c r="M2" s="29" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="31"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="25"/>
-      <c r="H3" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="H3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
       <c r="M3" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="25"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
       <c r="M4" s="15"/>
       <c r="N4" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="25"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
       <c r="M5" s="10"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="25"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
@@ -1909,13 +1792,13 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="H8" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1925,45 +1808,45 @@
       <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1976,13 +1859,13 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="3"/>
@@ -1992,11 +1875,11 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="7"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -544,7 +544,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审判：6</t>
+    <t>审判：7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -10,13 +10,14 @@
     <sheet name="资料" sheetId="1" r:id="rId1"/>
     <sheet name="套装" sheetId="5" r:id="rId2"/>
     <sheet name="主角刷法" sheetId="6" r:id="rId3"/>
+    <sheet name="竞技场" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,7 +545,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审判：7</t>
+    <t>紫中，武器全紫，战力46501
+血精灵、方砖，穿披风、护肩
+傻馒、炮姐，穿护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判：14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,6 +777,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,7 +1401,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1898,4 +1936,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C4" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="25"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="25"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -10,14 +10,13 @@
     <sheet name="资料" sheetId="1" r:id="rId1"/>
     <sheet name="套装" sheetId="5" r:id="rId2"/>
     <sheet name="主角刷法" sheetId="6" r:id="rId3"/>
-    <sheet name="竞技场" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,32 +541,6 @@
   </si>
   <si>
     <t>均不穿装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫中，武器全紫，战力46501
-血精灵、方砖，穿披风、护肩
-傻馒、炮姐，穿护肩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血精灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傻馒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审判：14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,21 +750,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1055,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1400,9 +1358,6 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="K16" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
@@ -1936,64 +1891,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C4" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="25"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="25"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="9"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:E6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,29 @@
   </si>
   <si>
     <t>均不穿装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通审判技能卡牌一张，血6k左右，攻1250左右。可使用30绿指挥官，穿30蓝肩和30蓝披风，带30蓝剑和30成就戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判</t>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发丝(精英)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,12 +762,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,7 +1090,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1682,44 +1717,44 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="H2" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="M2" s="29" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="M2" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="H3" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
       <c r="M3" s="15" t="s">
         <v>112</v>
       </c>
@@ -1728,14 +1763,14 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="28"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
       <c r="M4" s="15"/>
       <c r="N4" s="2" t="s">
         <v>113</v>
@@ -1748,14 +1783,14 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="28"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="M5" s="10"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
@@ -1764,14 +1799,14 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="28"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
@@ -1782,6 +1817,12 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
+      <c r="M7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
@@ -1796,6 +1837,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
+      <c r="M8" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
@@ -1814,6 +1861,10 @@
       <c r="K9" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
@@ -1836,6 +1887,10 @@
       <c r="K10" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
@@ -1848,6 +1903,12 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
+      <c r="M11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
@@ -1864,6 +1925,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
@@ -1878,9 +1945,19 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="13"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="M8:P10"/>
+    <mergeCell ref="M7:P7"/>
     <mergeCell ref="B3:E6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:K2"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资料" sheetId="1" r:id="rId1"/>
@@ -532,38 +532,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均不穿装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通审判技能卡牌一张，血6k左右，攻1250左右。可使用30绿指挥官，穿30蓝肩和30蓝披风，带30蓝剑和30成就戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判</t>
+  </si>
+  <si>
+    <t>奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发丝(精英)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>25白傻馒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均不穿装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通审判技能卡牌一张，血6k左右，攻1250左右。可使用30绿指挥官，穿30蓝肩和30蓝披风，带30蓝剑和30成就戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审判</t>
-  </si>
-  <si>
-    <t>奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发丝(精英)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1625,7 +1625,6 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
       <c r="C15" s="2"/>
       <c r="D15" s="4" t="s">
         <v>96</v>
@@ -1660,7 +1659,7 @@
         <v>98</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -1668,9 +1667,7 @@
       <c r="B18" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="G18" s="11" t="s">
         <v>99</v>
@@ -1680,7 +1677,9 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>96</v>
       </c>
@@ -1692,7 +1691,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E21" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="20"/>
     </row>
@@ -1818,7 +1817,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
       <c r="M7" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
@@ -1838,7 +1837,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
       <c r="M8" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
@@ -1904,7 +1903,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
       <c r="M11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1928,7 +1927,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P12" s="4"/>
     </row>
@@ -1947,10 +1946,10 @@
       <c r="K13" s="13"/>
       <c r="M13" s="10"/>
       <c r="N13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="P13" s="8"/>
     </row>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="资料" sheetId="1" r:id="rId1"/>
@@ -496,30 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>480 + 60[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] + 30[世界] = 1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 50[材料] + 30[世界] = 840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 120[金龙] + 60[工会] + 40[材料] + 30[世界] = 790</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 130[材料] + 30[世界] = 920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 120[金龙] + 60[工会] + 100[材料] + 30[世界] = 850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 60[镇长] + 160[南瓜] + 60[工会] + 110[材料] + 30[世界] = 900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25白傻馒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,6 +540,30 @@
   </si>
   <si>
     <t>25白傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 110[材料] + 30[世界] = 876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 120[金龙] + 60[工会] + 100[材料] + 30[世界] = 826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 130[材料] + 30[世界] = 896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 120[金龙] + 60[工会] + 40[材料] + 30[世界] = 766</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 50[材料] + 30[世界] = 816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] + 30[世界] = 976</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1370,7 +1370,7 @@
         <v>76</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1385,7 +1385,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1400,7 +1400,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C18" s="16" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1428,7 +1428,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1443,7 +1443,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1458,7 +1458,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1490,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4"/>
       <c r="G16" s="11" t="s">
@@ -1659,13 +1659,13 @@
         <v>98</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -1678,7 +1678,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="12"/>
       <c r="C19" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>96</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E21" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F21" s="20"/>
     </row>
@@ -1817,7 +1817,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
       <c r="M7" s="28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
@@ -1837,7 +1837,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
       <c r="M8" s="25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
@@ -1903,7 +1903,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
       <c r="M11" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1927,7 +1927,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P12" s="4"/>
     </row>
@@ -1946,10 +1946,10 @@
       <c r="K13" s="13"/>
       <c r="M13" s="10"/>
       <c r="N13" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P13" s="8"/>
     </row>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -543,27 +543,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 110[材料] + 30[世界] = 876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 120[金龙] + 60[工会] + 100[材料] + 30[世界] = 826</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 130[材料] + 30[世界] = 896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 120[金龙] + 60[工会] + 40[材料] + 30[世界] = 766</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 50[材料] + 30[世界] = 816</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] + 30[世界] = 976</t>
+    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 110[材料] = 846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 120[金龙] + 60[工会] + 100[材料] = 796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 130[材料] = 866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 120[金龙] + 60[工会] + 40[材料] = 736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 50[材料] = 786</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480 + 36[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] = 946</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C17" sqref="C17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="131">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,30 +540,6 @@
   </si>
   <si>
     <t>25白傻馒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 110[材料] = 846</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 120[金龙] + 60[工会] + 100[材料] = 796</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 130[材料] = 866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 120[金龙] + 60[工会] + 40[材料] = 736</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 160[南瓜] + 60[工会] + 50[材料] = 786</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>480 + 36[镇长] + 200[南瓜] + 60[工会] + 50[材料] + 120[金龙] = 946</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1066,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:I17"/>
+      <selection activeCell="C15" sqref="C15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1369,9 +1345,7 @@
       <c r="A15" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -1384,9 +1358,7 @@
       <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>132</v>
-      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -1399,9 +1371,7 @@
       <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -1410,9 +1380,7 @@
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1427,9 +1395,7 @@
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>135</v>
-      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -1442,9 +1408,7 @@
       <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -1457,9 +1421,7 @@
       <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>

--- a/trunk/学习笔记/我叫MT/技能饲料.xlsx
+++ b/trunk/学习笔记/我叫MT/技能饲料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资料" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>哀嚎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,15 +405,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30蓝方砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30蓝方砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,14 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>29绿傻馒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>均不穿装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,6 +524,10 @@
   </si>
   <si>
     <t>25白傻馒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15:I15"/>
     </sheetView>
   </sheetViews>
@@ -1253,7 +1241,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1452,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1511,9 +1499,7 @@
       <c r="G6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -1539,10 +1525,10 @@
       <c r="G8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="12"/>
@@ -1552,9 +1538,7 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E12" s="24" t="s">
@@ -1591,56 +1575,57 @@
       <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="11"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
-        <v>120</v>
+      <c r="B16" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" s="4"/>
       <c r="G16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="G17" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="11" t="s">
-        <v>121</v>
+      <c r="B18" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="G18" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="12"/>
       <c r="C19" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>96</v>
@@ -1653,7 +1638,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E21" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F21" s="20"/>
     </row>
@@ -1685,19 +1670,19 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B2" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
       <c r="H2" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
       <c r="M2" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
@@ -1705,19 +1690,19 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="32"/>
       <c r="H3" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="32"/>
       <c r="M3" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1734,13 +1719,13 @@
       <c r="K4" s="32"/>
       <c r="M4" s="15"/>
       <c r="N4" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
@@ -1755,7 +1740,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P5" s="8"/>
     </row>
@@ -1779,7 +1764,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
       <c r="M7" s="28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
@@ -1787,19 +1772,19 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="H8" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
       <c r="M8" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
@@ -1809,18 +1794,18 @@
       <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
@@ -1830,23 +1815,23 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
@@ -1855,7 +1840,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1865,7 +1850,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
       <c r="M11" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1874,13 +1859,13 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="3"/>
@@ -1889,18 +1874,18 @@
       <c r="M12" s="9"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="7"/>
@@ -1908,10 +1893,10 @@
       <c r="K13" s="13"/>
       <c r="M13" s="10"/>
       <c r="N13" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P13" s="8"/>
     </row>
